--- a/artfynd/A 58767-2018.xlsx
+++ b/artfynd/A 58767-2018.xlsx
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>630223.5353680167</v>
+        <v>630224</v>
       </c>
       <c r="R2" t="n">
-        <v>6534430.84706613</v>
+        <v>6534431</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -762,19 +762,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">

--- a/artfynd/A 58767-2018.xlsx
+++ b/artfynd/A 58767-2018.xlsx
@@ -683,7 +683,7 @@
         <v>111905717</v>
       </c>
       <c r="B2" t="n">
-        <v>57580</v>
+        <v>57612</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
